--- a/Modified Data File/Soiltest_report_nutrrients_analysis.xlsx
+++ b/Modified Data File/Soiltest_report_nutrrients_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90958427_westernsydney_edu_au/Documents/Niraj Pot Experiment/Modified Data File/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90958427_westernsydney_edu_au/Documents/PolyTunnelS33_ExperimeNT1_dose/Modified Data File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{22373F1A-2D50-4B0A-A4FA-15FB822A432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9492522F-AB4B-4187-8599-670344788F7C}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="8_{22373F1A-2D50-4B0A-A4FA-15FB822A432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF414987-4A54-4CCE-8CFB-C1DFCED46859}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FC087EDF-DE93-4683-A9FE-862E9A178851}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{FC087EDF-DE93-4683-A9FE-862E9A178851}"/>
   </bookViews>
   <sheets>
     <sheet name="Ionic Strength" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="238">
   <si>
     <t>S.No</t>
   </si>
@@ -622,13 +622,209 @@
   </si>
   <si>
     <t>Lead (Pb²⁺)</t>
+  </si>
+  <si>
+    <t>Nitrogen (mg/kg w/w) (NH4+NO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elements </t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>Na 23
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Mg 25
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Al 27
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>P 31
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>K 39
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Ca 44
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Li 7
+(ppm)</t>
+  </si>
+  <si>
+    <t>Be 9
+(ppm)</t>
+  </si>
+  <si>
+    <t>ND-Overdiluted</t>
+  </si>
+  <si>
+    <t>B 10
+(ppm)</t>
+  </si>
+  <si>
+    <t>V 51
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Cr 52
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Mn 55
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Fe 54
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Co 59
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Ni 60
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Cu 63
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Zn 66
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>As 75
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Se 78
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Sr 88
+(ppm)</t>
+  </si>
+  <si>
+    <t>Mo 95
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Cd 111
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Sb 121
+(ppm)</t>
+  </si>
+  <si>
+    <t>La 139
+(ppm)</t>
+  </si>
+  <si>
+    <t>Ba 137
+(ppm)</t>
+  </si>
+  <si>
+    <t>Yb 174
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Eu 153
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Ho 165
+Helium KED
+(ppm)</t>
+  </si>
+  <si>
+    <t>Tl 205
+(ppm)</t>
+  </si>
+  <si>
+    <t>Pb 208
+(ppm)</t>
+  </si>
+  <si>
+    <t>Bi 209
+(ppm)</t>
+  </si>
+  <si>
+    <t>Th 232
+(ppm)</t>
+  </si>
+  <si>
+    <t>U 238
+(ppm)</t>
+  </si>
+  <si>
+    <t>Na 23
+% weight</t>
+  </si>
+  <si>
+    <t>Mg 25
+% weight</t>
+  </si>
+  <si>
+    <t>Al 27
+% weight</t>
+  </si>
+  <si>
+    <t>P 31
+% weight</t>
+  </si>
+  <si>
+    <t>K 39
+% weight</t>
+  </si>
+  <si>
+    <t>Ca 44
+% weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,8 +896,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,8 +935,20 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -826,11 +1041,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -895,6 +1138,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,24 +1181,22 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1472,10 +1734,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AE277084-216E-468B-A404-B3028F910379}" name="Table3" displayName="Table3" ref="A1:V22" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A1:V22" xr:uid="{AE277084-216E-468B-A404-B3028F910379}"/>
@@ -1510,8 +1768,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2A58F76-CB18-41E1-A72B-42640213DBF6}" name="Table1" displayName="Table1" ref="B1:I25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B1:I25" xr:uid="{E2A58F76-CB18-41E1-A72B-42640213DBF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2A58F76-CB18-41E1-A72B-42640213DBF6}" name="Table1" displayName="Table1" ref="B1:I26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B1:I26" xr:uid="{E2A58F76-CB18-41E1-A72B-42640213DBF6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8F42742B-FCAC-40C0-943C-D1406E09B5DF}" name="Parameter" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D86F2C3E-3017-4CFA-BF18-D5C0A5A90EB3}" name="Column2" dataDxfId="6"/>
@@ -1522,9 +1780,7 @@
     <tableColumn id="7" xr3:uid="{72FFE198-897B-4284-A220-8C3BFEE11F10}" name="Urine Fertilizer test EXP1 (g/L) " dataDxfId="1">
       <calculatedColumnFormula>F2 *0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3C77494D-481E-4F37-94E4-D766A77FD295}" name="Urine FertilizerExp test 2 (g/L)" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="8" xr3:uid="{3C77494D-481E-4F37-94E4-D766A77FD295}" name="Urine FertilizerExp test 2 (g/L)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1829,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C1B2B5-0178-4327-A169-6A34276F3B86}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3317,7 +3573,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3801,7 +4057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80093B9-7775-489F-98E5-28C5ED2528A4}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -4795,10 +5051,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECE9263-872E-46EA-9718-2C80D1ECACAC}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4809,14 +5065,17 @@
     <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.90625" style="1" customWidth="1"/>
     <col min="10" max="11" width="10.36328125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="13.54296875" style="48" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="8.7265625" style="1"/>
+    <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -4844,8 +5103,12 @@
       <c r="I1" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -4865,12 +5128,17 @@
         <f>F2 *0.001</f>
         <v>17.5</v>
       </c>
-      <c r="I2" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="38">
+        <v>30</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="40">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -4890,12 +5158,17 @@
         <f t="shared" ref="H3:H20" si="0">F3 *0.001</f>
         <v>2.6175000000000002</v>
       </c>
-      <c r="I3" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="M3" s="45">
+        <v>4119.0069999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="40">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -4917,12 +5190,17 @@
         <f t="shared" si="0"/>
         <v>14.515000000000001</v>
       </c>
-      <c r="I4" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>1.8760000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1">
+      <c r="I4" s="41">
+        <v>2.114517583</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="45">
+        <v>2.5709366512196601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="40" hidden="1">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -4942,12 +5220,15 @@
         <f t="shared" si="0"/>
         <v>3.4675000000000002</v>
       </c>
-      <c r="I5" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="40"/>
+      <c r="L5" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="45">
+        <v>2.47517529582823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="40">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -4967,12 +5248,15 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="40"/>
+      <c r="L6" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="M6" s="45">
+        <v>402.66946038997895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="40">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -4994,12 +5278,17 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="I7" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>2.4800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="41">
+        <v>2.8037646999999999E-2</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" s="45">
+        <v>2775.9202090050203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="40">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -5021,12 +5310,17 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="I8" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="41">
+        <v>6.1034720000000004E-3</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" s="45">
+        <v>6.8662382651785796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -5048,12 +5342,17 @@
         <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
-      <c r="I9" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="41">
+        <v>3.020739405</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="45">
+        <v>7.9117586487441299E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.5">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -5075,12 +5374,17 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I10" s="21" t="e">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -5102,12 +5406,17 @@
         <f t="shared" si="0"/>
         <v>2.75E-2</v>
       </c>
-      <c r="I11" s="21" t="e">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="M11" s="45">
+        <v>1.6171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="40">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -5129,12 +5438,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="I12" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="41">
+        <v>1.718891E-3</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" s="45">
+        <v>0.29712949082683704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -5156,12 +5470,17 @@
         <f t="shared" si="0"/>
         <v>0.58750000000000002</v>
       </c>
-      <c r="I13" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>5.9500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="41">
+        <v>6.7064922999999999E-2</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" s="45">
+        <v>38.356780856269197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="40">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -5183,12 +5502,17 @@
         <f t="shared" si="0"/>
         <v>0.185</v>
       </c>
-      <c r="I14" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>8.9000000000000006E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="41">
+        <v>1.0031560000000001E-3</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="M14" s="45">
+        <v>3.6926284833952501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="40">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -5208,12 +5532,15 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I15" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="40"/>
+      <c r="L15" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="M15" s="45">
+        <v>0.120962018287182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="40">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -5233,12 +5560,15 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I16" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="40"/>
+      <c r="L16" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="M16" s="45">
+        <v>1.06645471566544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="40">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -5258,12 +5588,15 @@
         <f t="shared" si="0"/>
         <v>35.633749729795497</v>
       </c>
-      <c r="I17" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17" s="40"/>
+      <c r="L17" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="45">
+        <v>26.9574084849489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="40">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -5280,15 +5613,19 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21">
-        <f t="shared" si="0"/>
-        <v>3.3E-3</v>
-      </c>
-      <c r="I18" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>3.3</v>
+      </c>
+      <c r="I18" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="45">
+        <v>0.50716965032983996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="40">
       <c r="B19" s="20" t="s">
         <v>18</v>
       </c>
@@ -5305,12 +5642,17 @@
         <f t="shared" si="0"/>
         <v>1.2389200000000001E-3</v>
       </c>
-      <c r="I19" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="40">
+        <v>3.3500000000000001E-4</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="M19" s="45">
+        <v>0.79130884237026811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="40">
       <c r="B20" s="21" t="s">
         <v>19</v>
       </c>
@@ -5327,12 +5669,15 @@
         <f t="shared" si="0"/>
         <v>0.84246560000000004</v>
       </c>
-      <c r="I20" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="40"/>
+      <c r="L20" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="M20" s="45">
+        <v>7.2587673857870502E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="40">
       <c r="B21" s="20" t="s">
         <v>166</v>
       </c>
@@ -5347,12 +5692,17 @@
         <f>F21 *0.001</f>
         <v>0</v>
       </c>
-      <c r="I21" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>2.415E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="41">
+        <v>2.722047E-3</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="45">
+        <v>1.75702244132806E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="20">
       <c r="B22" s="20" t="s">
         <v>167</v>
       </c>
@@ -5367,12 +5717,17 @@
         <f>F22 *0.001</f>
         <v>0</v>
       </c>
-      <c r="I22" s="21" t="e">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" s="45">
+        <v>8.6941007271134491E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="40">
       <c r="B23" s="21" t="s">
         <v>168</v>
       </c>
@@ -5387,12 +5742,17 @@
         <f t="shared" ref="H23:H25" si="1">F23 *0.001</f>
         <v>0</v>
       </c>
-      <c r="I23" s="21">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>1.9699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" s="41">
+        <v>2.2204689E-2</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" s="45">
+        <v>3.0438772806840899E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="40">
       <c r="B24" s="21" t="s">
         <v>169</v>
       </c>
@@ -5407,12 +5767,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="21" t="e">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="45">
+        <v>1.0576386124233302E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="20">
       <c r="B25" s="31" t="s">
         <v>170</v>
       </c>
@@ -5427,24 +5792,66 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="31" t="e">
-        <f>Table1[[#This Row],[ICP-OES test (Urval exp 2 batch 2) ]]*0.001</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I25" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="45">
+        <v>1.1191134991419499E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="20">
+      <c r="B26" s="20"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <f>F26 *0.001</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="L26" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" s="45">
+        <v>9.2172319303729497E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="20">
       <c r="J27"/>
       <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" s="45">
+        <v>1.9116641849085202E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="43.5">
       <c r="J28"/>
       <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="43.5">
       <c r="J29"/>
       <c r="K29"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="43.5">
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" s="18"/>
@@ -5452,8 +5859,14 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="43.5">
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" s="18"/>
@@ -5461,8 +5874,14 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20">
       <c r="B32" s="22" t="s">
         <v>48</v>
       </c>
@@ -5472,354 +5891,384 @@
       <c r="D32" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="2:11">
+      <c r="L32" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" s="45">
+        <v>8.5924113063918593E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="20">
       <c r="B33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="21">
+        <v>194</v>
+      </c>
+      <c r="C33" s="38">
         <v>17.5</v>
       </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
+      <c r="D33" s="38">
+        <v>30</v>
+      </c>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="2:11">
+      <c r="L33" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="M33" s="45">
+        <v>4.8486360339927296E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="20">
       <c r="B34" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="38">
         <v>2.6175000000000002</v>
       </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34"/>
+      <c r="D34" s="38">
+        <v>1.5</v>
+      </c>
       <c r="F34"/>
       <c r="G34"/>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="2:11">
+      <c r="L34" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="45">
+        <v>1.5348059262316198E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="43.5">
       <c r="B35" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="38">
         <v>14.515000000000001</v>
       </c>
-      <c r="D35" s="21">
-        <v>1.8760000000000001</v>
-      </c>
-      <c r="E35"/>
+      <c r="D35" s="39">
+        <v>2.114517583</v>
+      </c>
       <c r="F35"/>
       <c r="G35"/>
+      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="2:11">
+      <c r="L35" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="20">
       <c r="B36" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="38">
         <v>3.4675000000000002</v>
       </c>
-      <c r="D36" s="21">
-        <v>0</v>
-      </c>
-      <c r="E36"/>
+      <c r="D36" s="38"/>
       <c r="F36"/>
       <c r="G36"/>
+      <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="2:11">
+      <c r="L36" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" s="45">
+        <v>5.1487587499999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="20">
       <c r="B37" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="21" t="e">
+      <c r="C37" s="38" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D37" s="21">
-        <v>0</v>
-      </c>
-      <c r="E37"/>
+      <c r="D37" s="38"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="2:11">
+      <c r="L37" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="M37" s="45">
+        <v>3.2136708140245752E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="20">
       <c r="B38" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="38">
         <v>6.5</v>
       </c>
-      <c r="D38" s="21">
-        <v>2.4800000000000003E-2</v>
-      </c>
-      <c r="E38"/>
+      <c r="D38" s="39">
+        <v>2.8037646999999999E-2</v>
+      </c>
       <c r="F38"/>
       <c r="G38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="K38"/>
-    </row>
-    <row r="39" spans="2:11">
+      <c r="L38" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="M38" s="45">
+        <v>3.0939691197852878E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="20">
       <c r="B39" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="38">
         <v>6.25E-2</v>
       </c>
-      <c r="D39" s="21">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="E39"/>
+      <c r="D39" s="39">
+        <v>6.1034720000000004E-3</v>
+      </c>
       <c r="F39"/>
       <c r="G39"/>
       <c r="I39"/>
       <c r="J39"/>
-      <c r="K39"/>
-    </row>
-    <row r="40" spans="2:11">
+      <c r="L39" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="M39" s="45">
+        <v>0.50333682548747372</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="20">
       <c r="B40" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="38">
         <v>16.7</v>
       </c>
-      <c r="D40" s="21">
-        <v>2.68</v>
-      </c>
-      <c r="E40"/>
+      <c r="D40" s="39">
+        <v>3.020739405</v>
+      </c>
       <c r="F40"/>
       <c r="G40"/>
+      <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
-    </row>
-    <row r="41" spans="2:11">
+      <c r="L40" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="M40" s="45">
+        <v>3.4699002612562757</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="20">
       <c r="B41" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="38">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D41" s="21" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41"/>
+      <c r="D41" s="38" t="s">
+        <v>163</v>
+      </c>
       <c r="F41"/>
       <c r="G41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
-    </row>
-    <row r="42" spans="2:11">
+      <c r="L41" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="M41" s="45">
+        <v>8.582797831473225E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="38">
         <v>2.75E-2</v>
       </c>
-      <c r="D42" s="21" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E42"/>
+      <c r="D42" s="38" t="s">
+        <v>163</v>
+      </c>
       <c r="F42"/>
-      <c r="G42" s="18"/>
+      <c r="G42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42"/>
-    </row>
-    <row r="43" spans="2:11">
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="38">
         <v>0.125</v>
       </c>
-      <c r="D43" s="21">
-        <v>1.5E-3</v>
-      </c>
-      <c r="E43"/>
+      <c r="D43" s="39">
+        <v>1.718891E-3</v>
+      </c>
       <c r="F43"/>
       <c r="G43"/>
+      <c r="H43"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:13">
       <c r="B44" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="38">
         <v>0.58750000000000002</v>
       </c>
-      <c r="D44" s="21">
-        <v>5.9500000000000004E-2</v>
-      </c>
-      <c r="E44"/>
+      <c r="D44" s="39">
+        <v>6.7064922999999999E-2</v>
+      </c>
       <c r="F44"/>
       <c r="G44"/>
+      <c r="H44"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:13">
       <c r="B45" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="38">
         <v>0.185</v>
       </c>
-      <c r="D45" s="21">
-        <v>8.9000000000000006E-4</v>
-      </c>
-      <c r="E45"/>
+      <c r="D45" s="39">
+        <v>1.0031560000000001E-3</v>
+      </c>
       <c r="F45"/>
-      <c r="G45"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="2:11" ht="14">
+    <row r="46" spans="2:13">
       <c r="B46" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D46" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="14">
+      <c r="D46" s="38"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D47" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="14">
+      <c r="D47" s="38"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="38">
         <v>35.633749729795497</v>
       </c>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="14">
+      <c r="D48" s="38"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="2:4">
       <c r="B49" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="21">
-        <v>3.3E-3</v>
-      </c>
-      <c r="D49" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="14">
+      <c r="C49" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="D49" s="38">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
       <c r="B50" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="21">
-        <v>1.2389200000000001E-3</v>
-      </c>
-      <c r="D50" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="14">
+      <c r="C50" s="38">
+        <v>2.2800000000000001E-4</v>
+      </c>
+      <c r="D50" s="38">
+        <v>3.3500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
       <c r="B51" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="38">
         <v>0.84246560000000004</v>
       </c>
-      <c r="D51" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="14">
+      <c r="D51" s="38"/>
+    </row>
+    <row r="52" spans="2:4">
       <c r="B52" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="38">
         <v>2.415</v>
       </c>
-      <c r="D52" s="21">
-        <v>2.415E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="14">
+      <c r="D52" s="39">
+        <v>2.722047E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
       <c r="B53" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="21" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="14">
+      <c r="D53" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
       <c r="B54" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="38">
         <v>19.7</v>
       </c>
-      <c r="D54" s="21">
-        <v>1.9699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="14">
+      <c r="D54" s="39">
+        <v>2.2204689E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
       <c r="B55" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="21" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="14">
+      <c r="D55" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
       <c r="B56" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="21" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="14">
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="D56" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
